--- a/uploads/industry-sample.xlsx
+++ b/uploads/industry-sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\zarkha-admingit\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BA4D75A-238B-4856-BF94-D4FAE4EA10FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886A32A6-09AB-4BEC-9F32-6A12142E1293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{51729D52-E44C-4631-A636-BEAD640F1793}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>meta_title</t>
   </si>
@@ -48,15 +48,6 @@
     <t>SNo</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Hashtags</t>
-  </si>
-  <si>
     <t>meta_keyword</t>
   </si>
   <si>
@@ -66,26 +57,50 @@
     <t>active</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Summer sales, Mega Sale</t>
-  </si>
-  <si>
     <t>new testing</t>
+  </si>
+  <si>
+    <t>684ab7b592654d93c6f10c7e,684ab7d592654d93c6f10c82</t>
+  </si>
+  <si>
+    <t>Grocessry</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>hashtags</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>dsfdsf</t>
+  </si>
+  <si>
+    <t>sdfdsdsfsdfsdfdsff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,8 +123,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,65 +442,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80072D47-964D-419F-800C-0EE8B1A1460A}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -490,19 +518,48 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
